--- a/trunk/FASE 2/PRUEBAS/Resultado de pruebas/19.10.12/PLAN DE PRUEBAS ENVIO DE LOTES A SAP_V1.xlsx
+++ b/trunk/FASE 2/PRUEBAS/Resultado de pruebas/19.10.12/PLAN DE PRUEBAS ENVIO DE LOTES A SAP_V1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
   <si>
     <t>SAC</t>
   </si>
@@ -270,6 +270,24 @@
   <si>
     <t>Estado 
 Ensayo</t>
+  </si>
+  <si>
+    <t>CSTI COMENTARIOS</t>
+  </si>
+  <si>
+    <t>Control de Cambios</t>
+  </si>
+  <si>
+    <t>Corregir para lo que es RFC traslado.</t>
+  </si>
+  <si>
+    <t>Revisar si está dentro de la logica original</t>
+  </si>
+  <si>
+    <t>Verificar por qué no llamó a la RFC que cambia a Conforme</t>
+  </si>
+  <si>
+    <t>El lote cambió a NO Conforme, por tanto se ejecuta la RFC de cambio de estado a "no conforme" en SAP. Por qué la observación?</t>
   </si>
 </sst>
 </file>
@@ -369,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -746,17 +764,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -825,24 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,9 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +950,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +1136,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8677275" y="13420725"/>
+          <a:off x="8667750" y="13868400"/>
           <a:ext cx="3152775" cy="405241"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1139,6 +1223,147 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect l="46838" t="19479" r="6471" b="12730"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17459325" y="13887450"/>
+          <a:ext cx="1666875" cy="1160250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>752984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect l="46691" t="19479" r="5000" b="11810"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17411700" y="15401927"/>
+          <a:ext cx="1076325" cy="733932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect l="46618" t="19632" r="5073" b="13344"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17449801" y="16535401"/>
+          <a:ext cx="1142999" cy="760260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1434,7 +1659,7 @@
   <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1451,392 +1676,431 @@
     <col min="12" max="12" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75">
+      <c r="A1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1"/>
-    <row r="3" spans="1:14" s="1" customFormat="1">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1"/>
+    <row r="3" spans="1:16" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="39" t="s">
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="42" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="44"/>
-    </row>
-    <row r="7" spans="1:14" ht="30.75" thickBot="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="62" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="97"/>
+    </row>
+    <row r="7" spans="1:16" ht="30.75" thickBot="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="45">
-      <c r="A8" s="24" t="s">
+      <c r="O7" s="98"/>
+      <c r="P7" s="99"/>
+    </row>
+    <row r="8" spans="1:16" ht="45">
+      <c r="A8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>2148</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="61">
         <v>41192</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>25000</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>5000127100</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>25000</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>191551</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="87" t="s">
+      <c r="K8" s="27"/>
+      <c r="L8" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="91" t="s">
+      <c r="M8" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="92" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="30">
-      <c r="A9" s="14" t="s">
+      <c r="O8" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="96"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="30">
+      <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>2148</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8">
         <v>5000127105</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2500</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="88" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="60">
-      <c r="A10" s="14" t="s">
+      <c r="M9" s="44"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="93"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="60">
+      <c r="A10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>2149</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>41191</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>35000</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6">
         <v>191552</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="9">
+      <c r="L10" s="63"/>
+      <c r="M10" s="8">
         <v>4900188391</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="94" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="30">
-      <c r="A11" s="14" t="s">
+      <c r="O10" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="95"/>
+    </row>
+    <row r="11" spans="1:16" ht="30">
+      <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>2152</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>41183</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>45000</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6">
         <v>191553</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="89" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="49" t="s">
+      <c r="M11" s="8"/>
+      <c r="N11" s="42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="30">
-      <c r="A12" s="14" t="s">
+      <c r="O11" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="30">
+      <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>2152</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>41183</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>45000</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6">
         <v>191553</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="89" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="49" t="s">
+      <c r="M12" s="8"/>
+      <c r="N12" s="42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="30">
-      <c r="A13" s="14" t="s">
+      <c r="O12" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="93"/>
+    </row>
+    <row r="13" spans="1:16" ht="30">
+      <c r="A13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>2153</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>41201</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="89" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" ht="45">
-      <c r="A14" s="14" t="s">
+      <c r="M13" s="8"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="93"/>
+    </row>
+    <row r="14" spans="1:16" ht="45">
+      <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2153</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7">
+      <c r="D14" s="7"/>
+      <c r="E14" s="6">
         <v>60000</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="89" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>50000127106</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A15" s="16" t="s">
+      <c r="O14" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="93"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>2153</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="18">
+      <c r="D15" s="62"/>
+      <c r="E15" s="17">
         <v>80000</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="90" t="s">
+      <c r="K15" s="17"/>
+      <c r="L15" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="93"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:40" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
@@ -1845,7 +2109,7 @@
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:40" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
@@ -1854,7 +2118,7 @@
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:40" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A19" s="1" t="s">
@@ -1863,864 +2127,936 @@
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:40" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42" t="s">
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="39" t="s">
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42" t="s">
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="97"/>
     </row>
     <row r="21" spans="1:40" s="1" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="L21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="36" t="s">
         <v>20</v>
       </c>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
     </row>
     <row r="22" spans="1:40" ht="45">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>2154</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>41186</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>15000</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="47">
         <v>5000127107</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="54">
         <v>41186</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="50">
         <v>15000</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="73">
         <v>191554</v>
       </c>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="82"/>
-      <c r="L22" s="87" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="91" t="s">
+      <c r="M22" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="48" t="s">
+      <c r="N22" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
+      <c r="O22" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
     </row>
     <row r="23" spans="1:40" ht="56.25" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>2155</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>41185</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>12000</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="48">
         <v>5000127108</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="54">
         <v>41185</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="51">
         <v>12000</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="20">
         <v>191555</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>41202</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="47" t="s">
+      <c r="L23" s="67"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
+      <c r="O23" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
     </row>
     <row r="24" spans="1:40" s="1" customFormat="1" ht="30">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>2154</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>41186</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>15000</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="48">
         <v>5000127109</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="54">
         <v>41186</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="52">
         <v>15000</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <v>191554</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="88" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="51"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
     </row>
     <row r="25" spans="1:40" ht="120">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>2156</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>41184</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>18000</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="48">
         <v>5000127110</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="54">
         <v>41184</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="51">
         <v>15000</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>191556</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
+      <c r="K25" s="21"/>
+      <c r="L25" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="91" t="s">
+      <c r="M25" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="49" t="s">
+      <c r="N25" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
+      <c r="O25" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
     </row>
     <row r="26" spans="1:40" s="1" customFormat="1" ht="90">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
     </row>
     <row r="27" spans="1:40" ht="30">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>2156</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>41184</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>18000</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="48">
         <v>5000127110</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="54">
         <v>41184</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="51">
         <v>15000</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="20">
         <v>191556</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="9">
+      <c r="K27" s="21"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="8">
         <v>4900188395</v>
       </c>
-      <c r="N27" s="91" t="s">
+      <c r="N27" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
+      <c r="O27" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
     </row>
     <row r="28" spans="1:40" ht="30">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>2157</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>41202</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="77" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
     </row>
     <row r="29" spans="1:40" s="1" customFormat="1" ht="30">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>2158</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>41201</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="77" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
     </row>
     <row r="30" spans="1:40" ht="45">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="89" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
     </row>
     <row r="31" spans="1:40" ht="45">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="77" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
-    </row>
-    <row r="32" spans="1:40" ht="60">
-      <c r="A32" s="14" t="s">
+      <c r="M31" s="8"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+    </row>
+    <row r="32" spans="1:40" ht="90" customHeight="1">
+      <c r="A32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>2167</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>41189</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>17000</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="48">
         <v>5000127116</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="51">
         <v>17000</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>191560</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="78" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="50" t="s">
+      <c r="M32" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N32" s="40" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="30">
-      <c r="A33" s="14" t="s">
+      <c r="O32" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="103"/>
+    </row>
+    <row r="33" spans="1:16" ht="30">
+      <c r="A33" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>2168</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>41190</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>19000</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="48">
         <v>5000127122</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="54">
         <v>41190</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="51">
         <v>19000</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>191561</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="77" t="s">
+      <c r="K33" s="21"/>
+      <c r="L33" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="60">
-      <c r="A34" s="14" t="s">
+      <c r="N33" s="14"/>
+      <c r="O33" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="93"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="60">
+      <c r="A34" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>2168</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>41190</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>19000</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="48">
         <v>5000127122</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="54">
         <v>41190</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="51">
         <v>19000</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>191561</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="78" t="s">
+      <c r="K34" s="21"/>
+      <c r="L34" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="50">
+      <c r="M34" s="43">
         <v>4900188399</v>
       </c>
-      <c r="N34" s="47" t="s">
+      <c r="N34" s="94" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="30">
-      <c r="A35" s="14" t="s">
+      <c r="O34" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" s="104"/>
+    </row>
+    <row r="35" spans="1:16" ht="30">
+      <c r="A35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>2169</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>41191</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>18000</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="48">
         <v>5000127123</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="54">
         <v>41191</v>
       </c>
-      <c r="H35" s="58">
+      <c r="H35" s="51">
         <v>18000</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>191562</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="9" t="s">
+      <c r="K35" s="21"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="15"/>
-    </row>
-    <row r="36" spans="1:14" ht="60" customHeight="1" thickBot="1">
-      <c r="A36" s="16" t="s">
+      <c r="N35" s="14"/>
+      <c r="O35" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="93"/>
+    </row>
+    <row r="36" spans="1:16" ht="60" customHeight="1" thickBot="1">
+      <c r="A36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>2169</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="76">
         <v>41191</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>18000</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="49">
         <v>5000127123</v>
       </c>
-      <c r="G36" s="85">
+      <c r="G36" s="77">
         <v>41191</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="53">
         <v>18000</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="17">
         <v>191562</v>
       </c>
-      <c r="J36" s="73" t="s">
+      <c r="J36" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="84"/>
-      <c r="L36" s="79" t="s">
+      <c r="K36" s="76"/>
+      <c r="L36" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="M36" s="52">
+      <c r="M36" s="45">
         <v>4900188400</v>
       </c>
-      <c r="N36" s="86" t="s">
+      <c r="N36" s="78" t="s">
         <v>49</v>
       </c>
+      <c r="O36" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="34">
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:L6"/>
@@ -2729,7 +3065,6 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
